--- a/Q-NEX/国际事业部-小奇产品经理王力培训计划（2023-3-2）.xlsx
+++ b/Q-NEX/国际事业部-小奇产品经理王力培训计划（2023-3-2）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
   <si>
     <t>国际事业部-小奇智联项目部-新产品经理培训计划表</t>
   </si>
@@ -190,9 +190,6 @@
     <t>制作Q-NEX产品方案思维导图</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7 /3.8 </t>
-  </si>
-  <si>
     <t>Q-NEX产品线梳理及方案讲解</t>
   </si>
   <si>
@@ -631,11 +628,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -716,8 +713,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,96 +836,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,27 +850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -885,187 +882,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,26 +1255,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,6 +1295,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1323,30 +1335,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1355,6 +1343,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1363,10 +1360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,136 +1372,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2040,7 +2037,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -2155,9 +2152,7 @@
       <c r="G5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="41" t="s">
-        <v>24</v>
-      </c>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" s="18" customFormat="1" ht="59.5" customHeight="1" spans="1:8">
       <c r="A6" s="32">
@@ -2165,19 +2160,19 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="36"/>
     </row>
@@ -2187,19 +2182,19 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="34" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="36"/>
     </row>
@@ -2209,19 +2204,19 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>36</v>
       </c>
       <c r="H8" s="36"/>
     </row>
@@ -2231,19 +2226,19 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>40</v>
       </c>
       <c r="H9" s="36"/>
     </row>
@@ -2253,19 +2248,19 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="36"/>
     </row>
@@ -2274,22 +2269,22 @@
         <v>2023.3</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="39" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>50</v>
       </c>
       <c r="H11" s="41"/>
     </row>
@@ -2297,19 +2292,19 @@
       <c r="A12" s="44"/>
       <c r="B12" s="45"/>
       <c r="C12" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="E12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="39" t="s">
+      <c r="G12" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="41"/>
     </row>
@@ -2319,19 +2314,19 @@
       </c>
       <c r="B13" s="45"/>
       <c r="C13" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="41"/>
     </row>
@@ -2341,19 +2336,19 @@
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="E14" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="G14" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="H14" s="41"/>
     </row>
@@ -2361,17 +2356,17 @@
       <c r="A15" s="49"/>
       <c r="B15" s="45"/>
       <c r="C15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="H15" s="41"/>
     </row>
@@ -2379,14 +2374,14 @@
       <c r="A16" s="49"/>
       <c r="B16" s="45"/>
       <c r="C16" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="41"/>
@@ -2397,19 +2392,19 @@
       </c>
       <c r="B17" s="45"/>
       <c r="C17" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="H17" s="41"/>
     </row>
@@ -2419,19 +2414,19 @@
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="F18" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="G18" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="H18" s="41"/>
     </row>
@@ -2439,13 +2434,13 @@
       <c r="A19" s="37"/>
       <c r="B19" s="45"/>
       <c r="C19" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>16</v>
@@ -2457,16 +2452,16 @@
       <c r="A20" s="37"/>
       <c r="B20" s="54"/>
       <c r="C20" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="41"/>
@@ -2476,20 +2471,20 @@
         <v>2023.4</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="F21" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="H21" s="28"/>
     </row>
@@ -2498,26 +2493,26 @@
         <v>2023.4</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="H22" s="28"/>
     </row>
     <row r="23" ht="53" customHeight="1" spans="1:8">
       <c r="A23" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
@@ -2571,35 +2566,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -2608,10 +2603,10 @@
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -2620,13 +2615,13 @@
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
@@ -2639,7 +2634,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -2665,16 +2660,16 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -2682,10 +2677,10 @@
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -2694,7 +2689,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
@@ -2704,7 +2699,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
@@ -2714,7 +2709,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
@@ -2724,7 +2719,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -2733,16 +2728,16 @@
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -2750,13 +2745,13 @@
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="1:7">
@@ -2764,16 +2759,16 @@
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -2781,27 +2776,27 @@
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
@@ -2809,24 +2804,24 @@
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -2835,7 +2830,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
@@ -2845,7 +2840,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
@@ -2855,10 +2850,10 @@
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -2867,7 +2862,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
@@ -2876,10 +2871,10 @@
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
@@ -2888,10 +2883,10 @@
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>142</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
